--- a/data/trans_bre/P15_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_1-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>-25,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-20,67%</t>
+          <t>-45,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>58,32%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-25,03%</t>
+          <t>-35,53%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,72</t>
+          <t>-2,72; 1,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,39</t>
+          <t>-4,22; 1,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,91</t>
+          <t>-1,28; 6,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 2,16</t>
+          <t>-10,28; 2,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-90,21; 510,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 401,35</t>
+          <t>-37,51; 642,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-61,84; 49,56</t>
+          <t>-70,99; 43,81</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,47%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>-49,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>-14,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,0%</t>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,62</t>
+          <t>-2,96; 2,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,76</t>
+          <t>-3,47; 0,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 3,48</t>
+          <t>-4,74; 2,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 4,35</t>
+          <t>-7,98; 8,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,1; 303,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,31; 53,92</t>
+          <t>-49,12; 134,22</t>
         </is>
       </c>
     </row>
@@ -830,12 +830,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>157,04%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>56,85%</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 11,42</t>
+          <t>-13,04; 12,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 10,99</t>
+          <t>-10,25; 17,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-82,45; 651,93</t>
+          <t>-83,42; —</t>
         </is>
       </c>
     </row>
@@ -920,12 +920,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,27 +935,27 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>-45,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,32%</t>
+          <t>-10,82%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,15</t>
+          <t>-1,81; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,98</t>
+          <t>-2,43; 0,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,07</t>
+          <t>-1,72; 4,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,92</t>
+          <t>-7,13; 3,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,38; 669,69</t>
+          <t>-100,0; 553,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,36; 351,93</t>
+          <t>-91,31; 148,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 194,93</t>
+          <t>-40,88; 247,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,71; 27,92</t>
+          <t>-49,05; 41,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_1-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,179 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,55</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-25,16%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-45,85%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>89,45%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-35,53%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.3318872577218283</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.9585830197537855</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.706611670444994</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-4.017047431427772</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.2515847642854439</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4396285933104447</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.030115862960417</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.386240082266401</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 1,53</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 1,34</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 6,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-10,28; 2,24</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-37,51; 642,49</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-70,99; 43,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.716979264092777</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.916184505577766</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.9804743546688029</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-11.10501602123184</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.3360204320440145</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.7254237192005399</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.529954711319059</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.312099094844171</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.784013325260019</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.834509666294706</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>6.979929865377572</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3330191978227907</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,47%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-49,46%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-14,62%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 2,16</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 0,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 2,92</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 8,82</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-49,12; 134,22</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.08388991336861704</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2781904994495574</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2008791434809441</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.7882708340756717</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.08470470542064706</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3561426803273969</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.08400365986698477</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.06174434281675609</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>36,01%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>56,85%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.962599881879067</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.607110928310505</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.090872063685351</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.85168982373294</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.5910635967923815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,04; 12,41</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,25; 17,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-83,42; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.161861543093053</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.005678684459345</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.90332440598594</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.880878141643822</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>0.9395461765210846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +807,171 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-10,59%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-45,79%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>41,56%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-10,82%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6330016243934256</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.6329236520142</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1264813595260632</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.506040084153582</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 1,15</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 0,55</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 4,0</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 3,02</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 553,73</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-91,31; 148,35</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-40,88; 247,51</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-49,05; 41,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>-15.95384884503345</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.48297081107387</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.8516510745099194</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>10.89488961249101</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.84810136216544</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.1099566539532557</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.5598454104828979</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.332509189795214</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.922332626563615</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1058932447205487</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4082145458724343</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4806360431666521</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1739603632676624</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.8145429823564</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.160734516142202</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.50171551429707</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.377446899038615</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.903315777071144</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4026640186721686</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5418225176984593</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.148081046780451</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5826176612988075</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.047823192904778</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.696592758916597</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.537293364819738</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.711650135796682</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.670351095897241</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3343935621883107</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +979,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
